--- a/data/excel files/out/flightPersonnel.xlsx
+++ b/data/excel files/out/flightPersonnel.xlsx
@@ -7,18 +7,17 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="INSTRUCTIONS" sheetId="1" r:id="rId1"/>
-    <sheet name="CALLSIGN" sheetId="2" r:id="rId2"/>
-    <sheet name="ALPHA" sheetId="3" r:id="rId3"/>
-    <sheet name="BRAVO" sheetId="4" r:id="rId4"/>
-    <sheet name="OTHERS" sheetId="5" r:id="rId5"/>
+    <sheet name="CALLSIGN" sheetId="1" r:id="rId1"/>
+    <sheet name="ALPHA" sheetId="2" r:id="rId2"/>
+    <sheet name="BRAVO" sheetId="3" r:id="rId3"/>
+    <sheet name="OTHERS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="145">
   <si>
     <t>callsign</t>
   </si>
@@ -26,10 +25,7 @@
     <t>sheetName</t>
   </si>
   <si>
-    <t>IGNITE</t>
-  </si>
-  <si>
-    <t>SNAP</t>
+    <t>HALO</t>
   </si>
   <si>
     <t>TWO-FACE</t>
@@ -50,418 +46,406 @@
     <t>ZINC</t>
   </si>
   <si>
+    <t>FLARE</t>
+  </si>
+  <si>
     <t>OC</t>
   </si>
   <si>
+    <t>MARC</t>
+  </si>
+  <si>
+    <t>WEI KEONG</t>
+  </si>
+  <si>
+    <t>MASON</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>JIA YING</t>
+  </si>
+  <si>
+    <t>JEN</t>
+  </si>
+  <si>
+    <t>CHU HENG</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>displayName</t>
+  </si>
+  <si>
+    <t>commSec</t>
+  </si>
+  <si>
+    <t>nor</t>
+  </si>
+  <si>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t>CPT</t>
+  </si>
+  <si>
+    <t>LTA</t>
+  </si>
+  <si>
+    <t>2LT</t>
+  </si>
+  <si>
+    <t>2WO</t>
+  </si>
+  <si>
+    <t>3WO</t>
+  </si>
+  <si>
+    <t>MSG</t>
+  </si>
+  <si>
+    <t>SSG</t>
+  </si>
+  <si>
+    <t>1SG</t>
+  </si>
+  <si>
+    <t>2SG</t>
+  </si>
+  <si>
+    <t>3SG</t>
+  </si>
+  <si>
+    <t>WEI JIAN</t>
+  </si>
+  <si>
+    <t>BRENDON</t>
+  </si>
+  <si>
+    <t>JOVAN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>SARA</t>
+  </si>
+  <si>
+    <t>MATHEW</t>
+  </si>
+  <si>
+    <t>HUA ZONG</t>
+  </si>
+  <si>
+    <t>YI HAO</t>
+  </si>
+  <si>
+    <t>MANFRED</t>
+  </si>
+  <si>
+    <t>KIT YIN</t>
+  </si>
+  <si>
+    <t>SUREN</t>
+  </si>
+  <si>
+    <t>HE QUN</t>
+  </si>
+  <si>
+    <t>MALCOLM CHOW</t>
+  </si>
+  <si>
+    <t>BRYAN LEE</t>
+  </si>
+  <si>
+    <t>SEAN YAP</t>
+  </si>
+  <si>
+    <t>KEITH</t>
+  </si>
+  <si>
+    <t>HOWARD</t>
+  </si>
+  <si>
+    <t>CALEB</t>
+  </si>
+  <si>
+    <t>AUGUSTIN</t>
+  </si>
+  <si>
+    <t>MORPHEUS</t>
+  </si>
+  <si>
+    <t>JOSHUR</t>
+  </si>
+  <si>
+    <t>BRENDAN</t>
+  </si>
+  <si>
+    <t>SHIN RON</t>
+  </si>
+  <si>
+    <t>(SUP) SARAVANAN</t>
+  </si>
+  <si>
+    <t>(SUP) MATHEW YONG</t>
+  </si>
+  <si>
+    <t>(SUP) HUA ZONG</t>
+  </si>
+  <si>
+    <t>(SUP) YI HAO</t>
+  </si>
+  <si>
+    <t>(SUP) MANFRED ONG</t>
+  </si>
+  <si>
+    <t>(CRANE) KIT YIN</t>
+  </si>
+  <si>
+    <t>(RIGG) SURENDREN</t>
+  </si>
+  <si>
+    <t>(CRANE) HE QUN</t>
+  </si>
+  <si>
+    <t>(RIGG) MALCOLM CHOW</t>
+  </si>
+  <si>
+    <t>(RIGG) BRYAN LEE</t>
+  </si>
+  <si>
+    <t>KEITH SHEN</t>
+  </si>
+  <si>
+    <t>HOWARD TAN</t>
+  </si>
+  <si>
+    <t>CALEB TAY</t>
+  </si>
+  <si>
+    <t>BRENDAN HOW</t>
+  </si>
+  <si>
+    <t>REGULAR</t>
+  </si>
+  <si>
+    <t>NSF</t>
+  </si>
+  <si>
+    <t>MAJ</t>
+  </si>
+  <si>
+    <t>JENEVIEVE</t>
+  </si>
+  <si>
+    <t>NAVEEN</t>
+  </si>
+  <si>
+    <t>ROY</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>THEOPHILUS</t>
+  </si>
+  <si>
+    <t>DEVARAJ</t>
+  </si>
+  <si>
+    <t>PRAVEAN</t>
+  </si>
+  <si>
+    <t>LEONARD</t>
+  </si>
+  <si>
+    <t>IVAN CHEN</t>
+  </si>
+  <si>
+    <t>BRYAN YON</t>
+  </si>
+  <si>
+    <t>JIAN HONG</t>
+  </si>
+  <si>
+    <t>QI XIAN</t>
+  </si>
+  <si>
+    <t>BRYAN CHUA</t>
+  </si>
+  <si>
+    <t>NICHOLAS</t>
+  </si>
+  <si>
+    <t>EVAN</t>
+  </si>
+  <si>
+    <t>SEAN TZE</t>
+  </si>
+  <si>
+    <t>NISHAN</t>
+  </si>
+  <si>
+    <t>ERNEST</t>
+  </si>
+  <si>
+    <t>HERTZ</t>
+  </si>
+  <si>
+    <t>XI QUAN</t>
+  </si>
+  <si>
+    <t>JING XIANG</t>
+  </si>
+  <si>
+    <t>ISAAC</t>
+  </si>
+  <si>
+    <t>ZACHARY</t>
+  </si>
+  <si>
+    <t>MALCOLM PECK</t>
+  </si>
+  <si>
+    <t>(SUP) DEVARAJ</t>
+  </si>
+  <si>
+    <t>(SUP) PRAVEAN</t>
+  </si>
+  <si>
+    <t>(SUP) LEONARD LOW</t>
+  </si>
+  <si>
+    <t>(SUP) IVAN CHEN</t>
+  </si>
+  <si>
+    <t>(CRANE) BRYAN YON</t>
+  </si>
+  <si>
+    <t>(SUP) JIAN HONG</t>
+  </si>
+  <si>
+    <t>(CRANE) QI XIAN</t>
+  </si>
+  <si>
+    <t>(CRANE) BRYAN CHUA</t>
+  </si>
+  <si>
+    <t>(RIGG) NICHOLAS</t>
+  </si>
+  <si>
+    <t>(RIGG) NISHAN</t>
+  </si>
+  <si>
+    <t>AIK WEE HERTZ</t>
+  </si>
+  <si>
+    <t>JIAYING</t>
+  </si>
+  <si>
+    <t>1WO</t>
+  </si>
+  <si>
     <t>MARCUS</t>
   </si>
   <si>
-    <t>MARC</t>
-  </si>
-  <si>
-    <t>WEI KEONG</t>
-  </si>
-  <si>
-    <t>MASON</t>
-  </si>
-  <si>
-    <t>LAURA</t>
-  </si>
-  <si>
-    <t>JIA YING</t>
-  </si>
-  <si>
-    <t>JEN</t>
-  </si>
-  <si>
-    <t>rank</t>
-  </si>
-  <si>
-    <t>displayName</t>
-  </si>
-  <si>
-    <t>commSec</t>
-  </si>
-  <si>
-    <t>nor</t>
-  </si>
-  <si>
-    <t>NIL</t>
-  </si>
-  <si>
-    <t>CPT</t>
-  </si>
-  <si>
-    <t>LTA</t>
-  </si>
-  <si>
-    <t>2LT</t>
-  </si>
-  <si>
-    <t>2WO</t>
-  </si>
-  <si>
-    <t>3WO</t>
-  </si>
-  <si>
-    <t>MSG</t>
-  </si>
-  <si>
-    <t>SSG</t>
-  </si>
-  <si>
-    <t>1SG</t>
-  </si>
-  <si>
-    <t>2SG</t>
-  </si>
-  <si>
-    <t>3SG</t>
-  </si>
-  <si>
-    <t>CHU HENG</t>
-  </si>
-  <si>
-    <t>WEI JIAN</t>
-  </si>
-  <si>
-    <t>BRENDON</t>
-  </si>
-  <si>
-    <t>JOVAN</t>
-  </si>
-  <si>
-    <t>MAX</t>
-  </si>
-  <si>
-    <t>SARA</t>
+    <t>KENNETH</t>
+  </si>
+  <si>
+    <t>MIN FENG</t>
+  </si>
+  <si>
+    <t>MICHAEL EU</t>
+  </si>
+  <si>
+    <t>ANDY</t>
+  </si>
+  <si>
+    <t>TOMMY</t>
+  </si>
+  <si>
+    <t>CHEOK</t>
+  </si>
+  <si>
+    <t>WENG YEW</t>
+  </si>
+  <si>
+    <t>LO HENG</t>
+  </si>
+  <si>
+    <t>YAO REN</t>
+  </si>
+  <si>
+    <t>LUIS HUANG</t>
+  </si>
+  <si>
+    <t>RONG PO</t>
   </si>
   <si>
     <t>ZHENG YUAN</t>
   </si>
   <si>
-    <t>HUA ZONG</t>
-  </si>
-  <si>
-    <t>YI HAO</t>
-  </si>
-  <si>
-    <t>MANFRED</t>
-  </si>
-  <si>
-    <t>KIT YIN</t>
-  </si>
-  <si>
-    <t>SUREN</t>
-  </si>
-  <si>
-    <t>HE QUN</t>
-  </si>
-  <si>
-    <t>MALCOLM CHOW</t>
-  </si>
-  <si>
-    <t>BRYAN LEE</t>
-  </si>
-  <si>
-    <t>SEAN YAP</t>
-  </si>
-  <si>
-    <t>KEITH</t>
-  </si>
-  <si>
-    <t>HOWARD</t>
-  </si>
-  <si>
-    <t>CALEB</t>
-  </si>
-  <si>
-    <t>AUGUSTIN</t>
-  </si>
-  <si>
-    <t>MORPHEUS</t>
-  </si>
-  <si>
-    <t>JOSHUR</t>
-  </si>
-  <si>
-    <t>BRENDAN</t>
-  </si>
-  <si>
-    <t>SHIN RON</t>
-  </si>
-  <si>
-    <t>(SUP) SARAVANAN</t>
+    <t>YEW SENG</t>
+  </si>
+  <si>
+    <t>BELLAMY</t>
+  </si>
+  <si>
+    <t>FREDERICK</t>
+  </si>
+  <si>
+    <t>VINCZE</t>
+  </si>
+  <si>
+    <t>SHAO JUN</t>
+  </si>
+  <si>
+    <t>NIGEL</t>
+  </si>
+  <si>
+    <t>RYAN</t>
+  </si>
+  <si>
+    <t>(SUP) MICHAEL EU</t>
+  </si>
+  <si>
+    <t>(SUP) DANIEL</t>
+  </si>
+  <si>
+    <t>(SUP) ANDY CHEW</t>
+  </si>
+  <si>
+    <t>(SUP) CHEOK</t>
+  </si>
+  <si>
+    <t>(SUP) WENG YEW</t>
+  </si>
+  <si>
+    <t>(SUP) LO HENG</t>
+  </si>
+  <si>
+    <t>(SUP) YAOREN</t>
   </si>
   <si>
     <t>(SUP) ZHENG YUAN</t>
   </si>
   <si>
-    <t>(SUP) HUA ZONG</t>
-  </si>
-  <si>
-    <t>(SUP) YI HAO</t>
-  </si>
-  <si>
-    <t>(SUP) MANFRED ONG</t>
-  </si>
-  <si>
-    <t>(CRANE) KIT YIN</t>
-  </si>
-  <si>
-    <t>(RIGG) SURENDREN</t>
-  </si>
-  <si>
-    <t>(CRANE) HE QUN</t>
-  </si>
-  <si>
-    <t>(RIGG) MALCOLM CHOW</t>
-  </si>
-  <si>
-    <t>(RIGG) BRYAN LEE</t>
-  </si>
-  <si>
-    <t>KEITH SHEN</t>
-  </si>
-  <si>
-    <t>HOWARD TAN</t>
-  </si>
-  <si>
-    <t>CALEB TAY</t>
-  </si>
-  <si>
-    <t>BRENDAN HOW</t>
+    <t>(SUP) YEW SENG</t>
+  </si>
+  <si>
+    <t>(CRANE) YEO BELLAMY</t>
+  </si>
+  <si>
+    <t>(SUP) FREDERICK</t>
+  </si>
+  <si>
+    <t>(CRANE) VINCZE</t>
   </si>
   <si>
     <t>MARCUS SHAWN</t>
-  </si>
-  <si>
-    <t>REGULAR</t>
-  </si>
-  <si>
-    <t>NSF</t>
-  </si>
-  <si>
-    <t>MAJ</t>
-  </si>
-  <si>
-    <t>JENEVIEVE</t>
-  </si>
-  <si>
-    <t>NAVEEN</t>
-  </si>
-  <si>
-    <t>ROY</t>
-  </si>
-  <si>
-    <t>THEOPHILUS</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>ANDY</t>
-  </si>
-  <si>
-    <t>PRAVEAN</t>
-  </si>
-  <si>
-    <t>LEONARD</t>
-  </si>
-  <si>
-    <t>MATHEW</t>
-  </si>
-  <si>
-    <t>IVAN CHEN</t>
-  </si>
-  <si>
-    <t>BRYAN YON</t>
-  </si>
-  <si>
-    <t>JIAN HONG</t>
-  </si>
-  <si>
-    <t>QI XIAN</t>
-  </si>
-  <si>
-    <t>BRYAN CHUA</t>
-  </si>
-  <si>
-    <t>NICHOLAS</t>
-  </si>
-  <si>
-    <t>EVAN</t>
-  </si>
-  <si>
-    <t>SEAN TZE</t>
-  </si>
-  <si>
-    <t>NISHAN</t>
-  </si>
-  <si>
-    <t>ERNEST</t>
-  </si>
-  <si>
-    <t>HERTZ</t>
-  </si>
-  <si>
-    <t>XI QUAN</t>
-  </si>
-  <si>
-    <t>JING XIANG</t>
-  </si>
-  <si>
-    <t>ISAAC</t>
-  </si>
-  <si>
-    <t>ZACHARY</t>
-  </si>
-  <si>
-    <t>MALCOLM PECK</t>
-  </si>
-  <si>
-    <t>(SUP) ANDY CHEW</t>
-  </si>
-  <si>
-    <t>(SUP) PRAVEAN</t>
-  </si>
-  <si>
-    <t>(SUP) LEONARD LOW</t>
-  </si>
-  <si>
-    <t>(SUP) MATHEW YONG</t>
-  </si>
-  <si>
-    <t>(SUP) IVAN CHEN</t>
-  </si>
-  <si>
-    <t>(CRANE) BRYAN YON</t>
-  </si>
-  <si>
-    <t>(SUP) JIAN HONG</t>
-  </si>
-  <si>
-    <t>(CRANE) QI XIAN</t>
-  </si>
-  <si>
-    <t>(CRANE) BRYAN CHUA</t>
-  </si>
-  <si>
-    <t>(RIGG) NICHOLAS</t>
-  </si>
-  <si>
-    <t>(RIGG) NISHAN</t>
-  </si>
-  <si>
-    <t>AIK WEE HERTZ</t>
-  </si>
-  <si>
-    <t>JIAYING</t>
-  </si>
-  <si>
-    <t>1WO</t>
-  </si>
-  <si>
-    <t>KENNETH</t>
-  </si>
-  <si>
-    <t>MIN FENG</t>
-  </si>
-  <si>
-    <t>MICHAEL EU</t>
-  </si>
-  <si>
-    <t>DEVARAJ</t>
-  </si>
-  <si>
-    <t>TOMMY</t>
-  </si>
-  <si>
-    <t>CHEOK</t>
-  </si>
-  <si>
-    <t>WENG YEW</t>
-  </si>
-  <si>
-    <t>LO HENG</t>
-  </si>
-  <si>
-    <t>YAO REN</t>
-  </si>
-  <si>
-    <t>LUIS HUANG</t>
-  </si>
-  <si>
-    <t>RONG PO</t>
-  </si>
-  <si>
-    <t>YEW SENG</t>
-  </si>
-  <si>
-    <t>BELLAMY</t>
-  </si>
-  <si>
-    <t>FREDERICK</t>
-  </si>
-  <si>
-    <t>VINCZE</t>
-  </si>
-  <si>
-    <t>KHAI JIE</t>
-  </si>
-  <si>
-    <t>WAI JUNE</t>
-  </si>
-  <si>
-    <t>JOSHUA</t>
-  </si>
-  <si>
-    <t>SHAO JUN</t>
-  </si>
-  <si>
-    <t>NOAH</t>
-  </si>
-  <si>
-    <t>JUN FONG</t>
-  </si>
-  <si>
-    <t>NIGEL</t>
-  </si>
-  <si>
-    <t>RYAN</t>
-  </si>
-  <si>
-    <t>(SUP) MICHAEL EU</t>
-  </si>
-  <si>
-    <t>(SUP) DANIEL</t>
-  </si>
-  <si>
-    <t>(SUP) DEVARAJ</t>
-  </si>
-  <si>
-    <t>(SUP) CHEOK</t>
-  </si>
-  <si>
-    <t>(SUP) WENG YEW</t>
-  </si>
-  <si>
-    <t>(SUP) LO HENG</t>
-  </si>
-  <si>
-    <t>(SUP) YAOREN</t>
-  </si>
-  <si>
-    <t>(SUP) YEW SENG</t>
-  </si>
-  <si>
-    <t>(CRANE) YEO BELLAMY</t>
-  </si>
-  <si>
-    <t>(SUP) FREDERICK</t>
-  </si>
-  <si>
-    <t>(CRANE) VINCZE</t>
   </si>
   <si>
     <t>WEIKEONG</t>
@@ -538,49 +522,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="personnel_edit_instructions.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7562850" cy="10696575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -868,22 +809,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -968,9 +896,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -979,7 +907,7 @@
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1014,7 +942,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1028,10 +956,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1039,16 +967,16 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1065,12 +993,12 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -1079,10 +1007,10 @@
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1099,12 +1027,12 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
@@ -1116,29 +1044,29 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
       </c>
       <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
@@ -1150,7 +1078,7 @@
         <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1167,7 +1095,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1181,15 +1109,15 @@
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
@@ -1201,7 +1129,7 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1218,12 +1146,12 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
@@ -1235,12 +1163,12 @@
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
@@ -1252,7 +1180,7 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1269,7 +1197,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1286,24 +1214,24 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1314,13 +1242,13 @@
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1337,12 +1265,12 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
@@ -1354,7 +1282,7 @@
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1365,13 +1293,13 @@
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1388,7 +1316,7 @@
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1405,7 +1333,7 @@
         <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1416,13 +1344,13 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1433,30 +1361,13 @@
         <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1464,9 +1375,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1498,19 +1409,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1518,16 +1429,16 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1535,16 +1446,16 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1552,16 +1463,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1569,16 +1480,16 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1586,33 +1497,33 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1620,16 +1531,16 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1637,16 +1548,16 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1654,16 +1565,16 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1671,16 +1582,16 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1688,33 +1599,33 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1722,33 +1633,33 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1756,33 +1667,33 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1790,33 +1701,33 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1824,33 +1735,33 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1858,16 +1769,16 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1875,16 +1786,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1892,16 +1803,16 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1909,16 +1820,16 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1926,16 +1837,16 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1943,16 +1854,16 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1960,33 +1871,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1994,9 +1888,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2005,7 +1899,7 @@
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2031,16 +1925,16 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2048,16 +1942,16 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2065,50 +1959,50 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2116,16 +2010,16 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2133,33 +2027,33 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2167,16 +2061,16 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2184,16 +2078,16 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2201,16 +2095,16 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2218,16 +2112,16 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2235,118 +2129,118 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2354,33 +2248,33 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2388,67 +2282,16 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel files/out/flightPersonnel.xlsx
+++ b/data/excel files/out/flightPersonnel.xlsx
@@ -7,10 +7,11 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="CALLSIGN" sheetId="1" r:id="rId1"/>
-    <sheet name="ALPHA" sheetId="2" r:id="rId2"/>
-    <sheet name="BRAVO" sheetId="3" r:id="rId3"/>
-    <sheet name="OTHERS" sheetId="4" r:id="rId4"/>
+    <sheet name="INSTRUCTIONS" sheetId="1" r:id="rId1"/>
+    <sheet name="CALLSIGN" sheetId="2" r:id="rId2"/>
+    <sheet name="ALPHA" sheetId="3" r:id="rId3"/>
+    <sheet name="BRAVO" sheetId="4" r:id="rId4"/>
+    <sheet name="OTHERS" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -522,6 +523,49 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="personnel_edit_instructions.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7562850" cy="10696575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -809,9 +853,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -896,7 +953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E27"/>
   <sheetViews>
@@ -1375,7 +1432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -1749,7 +1806,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>89</v>
@@ -1888,7 +1945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>

--- a/data/excel files/out/flightPersonnel.xlsx
+++ b/data/excel files/out/flightPersonnel.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="150">
   <si>
     <t>callsign</t>
   </si>
@@ -128,9 +128,24 @@
     <t>JOVAN</t>
   </si>
   <si>
+    <t>RICHMOND</t>
+  </si>
+  <si>
     <t>MAX</t>
   </si>
   <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>YEN KIT</t>
+  </si>
+  <si>
+    <t>AIDAN</t>
+  </si>
+  <si>
+    <t>GUAN LIN</t>
+  </si>
+  <si>
     <t>SARA</t>
   </si>
   <si>
@@ -281,15 +296,15 @@
     <t>NICHOLAS</t>
   </si>
   <si>
+    <t>NISHAN</t>
+  </si>
+  <si>
     <t>EVAN</t>
   </si>
   <si>
     <t>SEAN TZE</t>
   </si>
   <si>
-    <t>NISHAN</t>
-  </si>
-  <si>
     <t>ERNEST</t>
   </si>
   <si>
@@ -437,7 +452,7 @@
     <t>(SUP) YEW SENG</t>
   </si>
   <si>
-    <t>(CRANE) YEO BELLAMY</t>
+    <t>(SUP) YEO BELLAMY</t>
   </si>
   <si>
     <t>(SUP) FREDERICK</t>
@@ -955,7 +970,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -999,7 +1014,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1016,7 +1031,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1033,7 +1048,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1050,7 +1065,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1067,7 +1082,7 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1084,7 +1099,7 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1101,97 +1116,97 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
@@ -1200,15 +1215,15 @@
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
@@ -1217,15 +1232,15 @@
         <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
@@ -1234,15 +1249,15 @@
         <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
@@ -1254,12 +1269,12 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>46</v>
@@ -1271,97 +1286,97 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
@@ -1373,41 +1388,41 @@
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1418,13 +1433,98 @@
         <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1466,7 +1566,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1478,7 +1578,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1492,10 +1592,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1512,7 +1612,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1520,16 +1620,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1537,16 +1637,16 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1554,16 +1654,16 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1571,16 +1671,16 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1588,16 +1688,16 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1605,16 +1705,16 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1622,16 +1722,16 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1639,16 +1739,16 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1656,16 +1756,16 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1673,16 +1773,16 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1690,16 +1790,16 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1707,16 +1807,16 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1724,16 +1824,16 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1741,16 +1841,16 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1758,16 +1858,16 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1775,16 +1875,16 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1792,16 +1892,16 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1809,16 +1909,16 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1826,16 +1926,16 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1843,16 +1943,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1860,16 +1960,16 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1877,16 +1977,16 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1894,16 +1994,16 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1911,16 +2011,16 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1928,16 +2028,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1955,7 +2055,7 @@
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
@@ -1982,16 +2082,16 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2005,10 +2105,10 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2016,16 +2116,16 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2033,33 +2133,33 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2067,16 +2167,16 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2084,16 +2184,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2101,16 +2201,16 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2118,16 +2218,16 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2135,16 +2235,16 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2152,16 +2252,16 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2169,16 +2269,16 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2186,16 +2286,16 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2203,16 +2303,16 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2220,16 +2320,16 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2237,16 +2337,16 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2254,16 +2354,16 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2271,16 +2371,16 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2288,16 +2388,16 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2305,16 +2405,16 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2322,16 +2422,16 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2339,16 +2439,16 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel files/out/flightPersonnel.xlsx
+++ b/data/excel files/out/flightPersonnel.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="159">
   <si>
     <t>callsign</t>
   </si>
@@ -119,6 +119,9 @@
     <t>3SG</t>
   </si>
   <si>
+    <t>SCT</t>
+  </si>
+  <si>
     <t>WEI JIAN</t>
   </si>
   <si>
@@ -203,6 +206,33 @@
     <t>SHIN RON</t>
   </si>
   <si>
+    <t>BRAYDEN</t>
+  </si>
+  <si>
+    <t>NOAH LAM</t>
+  </si>
+  <si>
+    <t>MARCUS</t>
+  </si>
+  <si>
+    <t>MENG LONG</t>
+  </si>
+  <si>
+    <t>KAI</t>
+  </si>
+  <si>
+    <t>CHARLES</t>
+  </si>
+  <si>
+    <t>DARSHAN</t>
+  </si>
+  <si>
+    <t>ZHONG PING</t>
+  </si>
+  <si>
+    <t>DERRILL</t>
+  </si>
+  <si>
     <t>(SUP) SARAVANAN</t>
   </si>
   <si>
@@ -363,9 +393,6 @@
   </si>
   <si>
     <t>1WO</t>
-  </si>
-  <si>
-    <t>MARCUS</t>
   </si>
   <si>
     <t>KENNETH</t>
@@ -970,7 +997,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1014,7 +1041,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1031,7 +1058,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1048,7 +1075,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1056,16 +1083,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1073,16 +1100,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1090,16 +1117,16 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1107,16 +1134,16 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1124,16 +1151,16 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1141,16 +1168,16 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1158,16 +1185,16 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1175,16 +1202,16 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1192,16 +1219,16 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1209,16 +1236,16 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1226,16 +1253,16 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1243,16 +1270,16 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1260,16 +1287,16 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1277,16 +1304,16 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1294,16 +1321,16 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1311,16 +1338,16 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1328,16 +1355,16 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1345,16 +1372,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1362,16 +1389,16 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1379,16 +1406,16 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1396,16 +1423,16 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1413,16 +1440,16 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1430,16 +1457,16 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1447,16 +1474,16 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1464,16 +1491,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1481,16 +1508,16 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1498,16 +1525,16 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1515,16 +1542,169 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1746,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1578,7 +1758,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1592,10 +1772,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1612,7 +1792,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1620,16 +1800,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1637,16 +1817,16 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1654,16 +1834,16 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1671,16 +1851,16 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1688,16 +1868,16 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1705,16 +1885,16 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1722,16 +1902,16 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1739,16 +1919,16 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1756,16 +1936,16 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1773,16 +1953,16 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1790,16 +1970,16 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1807,16 +1987,16 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1824,16 +2004,16 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1841,16 +2021,16 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1858,16 +2038,16 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1875,16 +2055,16 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1892,16 +2072,16 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1909,16 +2089,16 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1926,16 +2106,16 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1943,16 +2123,16 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1960,16 +2140,16 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1977,16 +2157,16 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1994,16 +2174,16 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2011,16 +2191,16 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2028,16 +2208,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2082,16 +2262,16 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2105,10 +2285,10 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2116,16 +2296,16 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2133,33 +2313,33 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2167,16 +2347,16 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2184,16 +2364,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2201,16 +2381,16 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2218,16 +2398,16 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2235,16 +2415,16 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2252,16 +2432,16 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2269,16 +2449,16 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2286,16 +2466,16 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2303,16 +2483,16 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2320,16 +2500,16 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2337,16 +2517,16 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2354,16 +2534,16 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2371,16 +2551,16 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2388,16 +2568,16 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2405,16 +2585,16 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2422,16 +2602,16 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2439,16 +2619,16 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel files/out/flightPersonnel.xlsx
+++ b/data/excel files/out/flightPersonnel.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="164">
   <si>
     <t>callsign</t>
   </si>
@@ -131,12 +131,12 @@
     <t>JOVAN</t>
   </si>
   <si>
+    <t>MAX</t>
+  </si>
+  <si>
     <t>RICHMOND</t>
   </si>
   <si>
-    <t>MAX</t>
-  </si>
-  <si>
     <t>LEON</t>
   </si>
   <si>
@@ -212,187 +212,202 @@
     <t>NOAH LAM</t>
   </si>
   <si>
+    <t>YI LONG</t>
+  </si>
+  <si>
+    <t>MENG LONG</t>
+  </si>
+  <si>
+    <t>KAI</t>
+  </si>
+  <si>
+    <t>CHARLES</t>
+  </si>
+  <si>
+    <t>DARSHAN</t>
+  </si>
+  <si>
+    <t>ZHONG PING</t>
+  </si>
+  <si>
+    <t>DERRILL</t>
+  </si>
+  <si>
+    <t>(SUP) SARAVANAN</t>
+  </si>
+  <si>
+    <t>(SUP) MATHEW YONG</t>
+  </si>
+  <si>
+    <t>(SUP) HUA ZONG</t>
+  </si>
+  <si>
+    <t>(SUP) YI HAO</t>
+  </si>
+  <si>
+    <t>(SUP) MANFRED ONG</t>
+  </si>
+  <si>
+    <t>(CRANE) KIT YIN</t>
+  </si>
+  <si>
+    <t>(RIGG) SURENDREN</t>
+  </si>
+  <si>
+    <t>(CRANE) HE QUN</t>
+  </si>
+  <si>
+    <t>(RIGG) MALCOLM CHOW</t>
+  </si>
+  <si>
+    <t>(RIGG) BRYAN LEE</t>
+  </si>
+  <si>
+    <t>KEITH SHEN</t>
+  </si>
+  <si>
+    <t>HOWARD TAN</t>
+  </si>
+  <si>
+    <t>CALEB TAY</t>
+  </si>
+  <si>
+    <t>BRENDAN HOW</t>
+  </si>
+  <si>
+    <t>REGULAR</t>
+  </si>
+  <si>
+    <t>NSF</t>
+  </si>
+  <si>
+    <t>MAJ</t>
+  </si>
+  <si>
+    <t>JENEVIEVE</t>
+  </si>
+  <si>
+    <t>NAVEEN</t>
+  </si>
+  <si>
+    <t>ROY</t>
+  </si>
+  <si>
+    <t>ELLESTER</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>THEOPHILUS</t>
+  </si>
+  <si>
+    <t>JUN YI</t>
+  </si>
+  <si>
+    <t>JAMES</t>
+  </si>
+  <si>
+    <t>ISAAC</t>
+  </si>
+  <si>
+    <t>DEVARAJ</t>
+  </si>
+  <si>
+    <t>PRAVEAN</t>
+  </si>
+  <si>
+    <t>LEONARD</t>
+  </si>
+  <si>
+    <t>IVAN CHEN</t>
+  </si>
+  <si>
+    <t>BRYAN YON</t>
+  </si>
+  <si>
+    <t>JIAN HONG</t>
+  </si>
+  <si>
+    <t>QI XIAN</t>
+  </si>
+  <si>
+    <t>BRYAN CHUA</t>
+  </si>
+  <si>
+    <t>NICHOLAS</t>
+  </si>
+  <si>
+    <t>NISHAN</t>
+  </si>
+  <si>
+    <t>EVAN</t>
+  </si>
+  <si>
+    <t>SEAN TZE</t>
+  </si>
+  <si>
+    <t>ERNEST</t>
+  </si>
+  <si>
+    <t>HERTZ</t>
+  </si>
+  <si>
+    <t>XI QUAN</t>
+  </si>
+  <si>
+    <t>JING XIANG</t>
+  </si>
+  <si>
+    <t>ZACHARY</t>
+  </si>
+  <si>
+    <t>MALCOLM PECK</t>
+  </si>
+  <si>
+    <t>(SUP) DEVARAJ</t>
+  </si>
+  <si>
+    <t>(SUP) PRAVEAN</t>
+  </si>
+  <si>
+    <t>(SUP) LEONARD LOW</t>
+  </si>
+  <si>
+    <t>(SUP) IVAN CHEN</t>
+  </si>
+  <si>
+    <t>(CRANE) BRYAN YON</t>
+  </si>
+  <si>
+    <t>(SUP) JIAN HONG</t>
+  </si>
+  <si>
+    <t>(CRANE) QI XIAN</t>
+  </si>
+  <si>
+    <t>(CRANE) BRYAN CHUA</t>
+  </si>
+  <si>
+    <t>(RIGG) NICHOLAS</t>
+  </si>
+  <si>
+    <t>(RIGG) NISHAN</t>
+  </si>
+  <si>
+    <t>AIK WEE HERTZ</t>
+  </si>
+  <si>
+    <t>ISAAC LIM</t>
+  </si>
+  <si>
+    <t>JIAYING</t>
+  </si>
+  <si>
+    <t>1WO</t>
+  </si>
+  <si>
     <t>MARCUS</t>
-  </si>
-  <si>
-    <t>MENG LONG</t>
-  </si>
-  <si>
-    <t>KAI</t>
-  </si>
-  <si>
-    <t>CHARLES</t>
-  </si>
-  <si>
-    <t>DARSHAN</t>
-  </si>
-  <si>
-    <t>ZHONG PING</t>
-  </si>
-  <si>
-    <t>DERRILL</t>
-  </si>
-  <si>
-    <t>(SUP) SARAVANAN</t>
-  </si>
-  <si>
-    <t>(SUP) MATHEW YONG</t>
-  </si>
-  <si>
-    <t>(SUP) HUA ZONG</t>
-  </si>
-  <si>
-    <t>(SUP) YI HAO</t>
-  </si>
-  <si>
-    <t>(SUP) MANFRED ONG</t>
-  </si>
-  <si>
-    <t>(CRANE) KIT YIN</t>
-  </si>
-  <si>
-    <t>(RIGG) SURENDREN</t>
-  </si>
-  <si>
-    <t>(CRANE) HE QUN</t>
-  </si>
-  <si>
-    <t>(RIGG) MALCOLM CHOW</t>
-  </si>
-  <si>
-    <t>(RIGG) BRYAN LEE</t>
-  </si>
-  <si>
-    <t>KEITH SHEN</t>
-  </si>
-  <si>
-    <t>HOWARD TAN</t>
-  </si>
-  <si>
-    <t>CALEB TAY</t>
-  </si>
-  <si>
-    <t>BRENDAN HOW</t>
-  </si>
-  <si>
-    <t>REGULAR</t>
-  </si>
-  <si>
-    <t>NSF</t>
-  </si>
-  <si>
-    <t>MAJ</t>
-  </si>
-  <si>
-    <t>JENEVIEVE</t>
-  </si>
-  <si>
-    <t>NAVEEN</t>
-  </si>
-  <si>
-    <t>ROY</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>THEOPHILUS</t>
-  </si>
-  <si>
-    <t>DEVARAJ</t>
-  </si>
-  <si>
-    <t>PRAVEAN</t>
-  </si>
-  <si>
-    <t>LEONARD</t>
-  </si>
-  <si>
-    <t>IVAN CHEN</t>
-  </si>
-  <si>
-    <t>BRYAN YON</t>
-  </si>
-  <si>
-    <t>JIAN HONG</t>
-  </si>
-  <si>
-    <t>QI XIAN</t>
-  </si>
-  <si>
-    <t>BRYAN CHUA</t>
-  </si>
-  <si>
-    <t>NICHOLAS</t>
-  </si>
-  <si>
-    <t>NISHAN</t>
-  </si>
-  <si>
-    <t>EVAN</t>
-  </si>
-  <si>
-    <t>SEAN TZE</t>
-  </si>
-  <si>
-    <t>ERNEST</t>
-  </si>
-  <si>
-    <t>HERTZ</t>
-  </si>
-  <si>
-    <t>XI QUAN</t>
-  </si>
-  <si>
-    <t>JING XIANG</t>
-  </si>
-  <si>
-    <t>ISAAC</t>
-  </si>
-  <si>
-    <t>ZACHARY</t>
-  </si>
-  <si>
-    <t>MALCOLM PECK</t>
-  </si>
-  <si>
-    <t>(SUP) DEVARAJ</t>
-  </si>
-  <si>
-    <t>(SUP) PRAVEAN</t>
-  </si>
-  <si>
-    <t>(SUP) LEONARD LOW</t>
-  </si>
-  <si>
-    <t>(SUP) IVAN CHEN</t>
-  </si>
-  <si>
-    <t>(CRANE) BRYAN YON</t>
-  </si>
-  <si>
-    <t>(SUP) JIAN HONG</t>
-  </si>
-  <si>
-    <t>(CRANE) QI XIAN</t>
-  </si>
-  <si>
-    <t>(CRANE) BRYAN CHUA</t>
-  </si>
-  <si>
-    <t>(RIGG) NICHOLAS</t>
-  </si>
-  <si>
-    <t>(RIGG) NISHAN</t>
-  </si>
-  <si>
-    <t>AIK WEE HERTZ</t>
-  </si>
-  <si>
-    <t>JIAYING</t>
-  </si>
-  <si>
-    <t>1WO</t>
   </si>
   <si>
     <t>KENNETH</t>
@@ -1131,7 +1146,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -1143,7 +1158,7 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1160,7 +1175,7 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1714,7 +1729,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1772,7 +1787,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
         <v>85</v>
@@ -1860,12 +1875,12 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>92</v>
@@ -1882,13 +1897,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1899,84 +1914,84 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
         <v>85</v>
@@ -1984,16 +1999,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
         <v>85</v>
@@ -2001,16 +2016,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
         <v>85</v>
@@ -2018,13 +2033,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -2035,13 +2050,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -2052,13 +2067,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -2069,75 +2084,75 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
         <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>107</v>
@@ -2154,7 +2169,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>108</v>
@@ -2194,7 +2209,7 @@
         <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2217,6 +2232,74 @@
         <v>22</v>
       </c>
       <c r="E29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2262,13 +2345,13 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
         <v>85</v>
@@ -2285,7 +2368,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
         <v>85</v>
@@ -2296,13 +2379,13 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
         <v>85</v>
@@ -2313,13 +2396,13 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
         <v>85</v>
@@ -2327,16 +2410,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E6" t="s">
         <v>85</v>
@@ -2347,13 +2430,13 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
         <v>85</v>
@@ -2364,13 +2447,13 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E8" t="s">
         <v>85</v>
@@ -2381,13 +2464,13 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
         <v>85</v>
@@ -2398,13 +2481,13 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
         <v>85</v>
@@ -2415,13 +2498,13 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
         <v>85</v>
@@ -2432,13 +2515,13 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E12" t="s">
         <v>85</v>
@@ -2449,13 +2532,13 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
         <v>85</v>
@@ -2466,13 +2549,13 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
         <v>85</v>
@@ -2483,13 +2566,13 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
         <v>85</v>
@@ -2500,13 +2583,13 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E16" t="s">
         <v>85</v>
@@ -2517,10 +2600,10 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -2534,10 +2617,10 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -2551,10 +2634,10 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -2568,10 +2651,10 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -2585,10 +2668,10 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -2602,10 +2685,10 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -2619,10 +2702,10 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
